--- a/Digital Workflow/Excel Docs/PAQs Answer.xlsx
+++ b/Digital Workflow/Excel Docs/PAQs Answer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fspintern1\Desktop\Internship - Hussam\Intern\Digital Workflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fspintern1\Desktop\Internship - Hussam\Intern\Digital Workflow\Excel Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>pleasant</t>
   </si>
@@ -125,12 +125,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -160,24 +172,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,73 +499,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="23" style="5"/>
+    <col min="1" max="7" width="23" style="2"/>
     <col min="8" max="8" width="23" style="6"/>
-    <col min="9" max="9" width="23" style="3"/>
-    <col min="10" max="16384" width="23" style="5"/>
+    <col min="9" max="9" width="23" style="4"/>
+    <col min="10" max="16384" width="23" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -550,34 +589,34 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>45126</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>0.40277777777777773</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
         <v>5</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>5</v>
       </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
         <v>2</v>
       </c>
       <c r="R2" s="1"/>
@@ -590,6 +629,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1">
+        <f>1+C2</f>
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -604,34 +644,34 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>45126</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>0.4055555555555555</v>
       </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>3</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>4</v>
-      </c>
-      <c r="P3" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5">
         <v>5</v>
       </c>
       <c r="R3" s="1"/>
@@ -644,6 +684,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" ref="C4:C14" si="0">1+C3</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -658,199 +699,202 @@
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>45126</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>0.4069444444444445</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
         <v>5</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="2">
         <v>5</v>
       </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>33</v>
       </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="11">
         <v>45126</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="10">
         <v>0.41319444444444442</v>
       </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>4</v>
-      </c>
-      <c r="N5" s="5">
-        <v>4</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>4</v>
+      </c>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>33</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="11">
         <v>45126</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="10">
         <v>0.4152777777777778</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="P6" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>33</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <v>45126</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J7" s="5">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>4</v>
-      </c>
-      <c r="N7" s="5">
-        <v>4</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>4</v>
-      </c>
-      <c r="R7" s="1"/>
+      <c r="J7" s="7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -860,6 +904,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D8" s="1">
@@ -874,34 +919,34 @@
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>45126</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>0.42222222222222222</v>
       </c>
-      <c r="J8" s="5">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5">
-        <v>3</v>
-      </c>
-      <c r="N8" s="5">
-        <v>4</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
         <v>2</v>
       </c>
       <c r="R8" s="1"/>
@@ -914,6 +959,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D9" s="1">
@@ -928,34 +974,34 @@
       <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>45126</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>0.4236111111111111</v>
       </c>
-      <c r="J9" s="5">
-        <v>2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>3</v>
-      </c>
-      <c r="L9" s="5">
-        <v>2</v>
-      </c>
-      <c r="M9" s="5">
-        <v>3</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5">
-        <v>4</v>
-      </c>
-      <c r="P9" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
         <v>3</v>
       </c>
       <c r="R9" s="1"/>
@@ -968,6 +1014,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D10" s="1">
@@ -982,37 +1029,244 @@
       <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>45126</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J10" s="5">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2</v>
-      </c>
-      <c r="N10" s="5">
-        <v>4</v>
-      </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
         <v>2</v>
       </c>
       <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="9">
+        <v>45132</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9">
+        <v>45132</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>4</v>
+      </c>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="9">
+        <v>45132</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>3</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="17" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="23" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="29" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="35" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="41" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">

--- a/Digital Workflow/Excel Docs/PAQs Answer.xlsx
+++ b/Digital Workflow/Excel Docs/PAQs Answer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>pleasant</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Maraile</t>
+  </si>
+  <si>
+    <t>Mina</t>
   </si>
 </sst>
 </file>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +687,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C14" si="0">1+C3</f>
+        <f t="shared" ref="C4:C13" si="0">1+C3</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -1062,6 +1065,9 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1110,6 +1116,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1158,6 +1167,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>

--- a/Digital Workflow/Excel Docs/PAQs Answer.xlsx
+++ b/Digital Workflow/Excel Docs/PAQs Answer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>pleasant</t>
   </si>
@@ -505,7 +505,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +687,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C13" si="0">1+C3</f>
+        <f t="shared" ref="C4:C19" si="0">1+C3</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -1218,41 +1218,185 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="17" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45132</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45132</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45132</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="23" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="29" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="8:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
@@ -1281,7 +1425,7 @@
       <c r="I43" s="10"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>1</formula1>
       <formula2>5</formula2>

--- a/Digital Workflow/Excel Docs/PAQs Answer.xlsx
+++ b/Digital Workflow/Excel Docs/PAQs Answer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fspintern1\Desktop\Internship - Hussam\Intern\Digital Workflow\Excel Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8x9-45a\Desktop\Data Analysis\Intern\Digital Workflow\Excel Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>pleasant</t>
   </si>
@@ -102,12 +102,18 @@
   </si>
   <si>
     <t>Mina</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Hari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -224,7 +230,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -240,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -505,10 +511,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="23" style="2"/>
     <col min="8" max="8" width="23" style="6"/>
@@ -1218,10 +1224,22 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26</v>
+      </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1260,10 +1278,22 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>26</v>
+      </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1302,10 +1332,22 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26</v>
+      </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1343,60 +1385,189 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7">
+        <v>26</v>
+      </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="9">
+        <v>45133</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7">
+        <v>26</v>
+      </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="9">
+        <v>45133</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>4</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>5</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7">
+        <v>26</v>
+      </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="23" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="9">
+        <v>45133</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="29" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
